--- a/data/trans_camb/P44-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P44-Provincia-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.430647560685656</v>
+        <v>5.011935193109878</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>34.76461885428962</v>
+        <v>34.77731389721823</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.552656191390609</v>
+        <v>-4.493178987885406</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.795408121743911</v>
+        <v>7.593573064263345</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.036860718487937</v>
+        <v>2.510917245966769</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>23.88069402421224</v>
+        <v>24.25492930039606</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>24.33713480319602</v>
+        <v>25.44440141761151</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>53.86532653403435</v>
+        <v>54.06361669061251</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.35928882311034</v>
+        <v>14.14469720416856</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23.79707779614815</v>
+        <v>24.14779850358231</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.75175605180994</v>
+        <v>16.98075881386727</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>36.5981395154186</v>
+        <v>36.81017916767529</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2410765810175433</v>
+        <v>0.3197721831136568</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>2.13734784225758</v>
+        <v>2.371697299499007</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3105172877792469</v>
+        <v>-0.3570118185981456</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3604819210273719</v>
+        <v>0.400394641433107</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1322635945477026</v>
+        <v>0.1392267806027742</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.64939792506648</v>
+        <v>1.697427976731588</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>5.690469633119431</v>
+        <v>6.072042178171172</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>15.76256726891324</v>
+        <v>15.14799966415368</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.380878552693274</v>
+        <v>2.055342590807222</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.994181946080896</v>
+        <v>4.254216305205262</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.673069522059321</v>
+        <v>2.595050321600406</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.871703762898938</v>
+        <v>6.068506502917751</v>
       </c>
     </row>
     <row r="10">
@@ -772,19 +772,19 @@
         <v>-8.59154824465605</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>17.69257334162901</v>
+        <v>17.692573341629</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-6.778815631475108</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.477752720430337</v>
+        <v>7.477752720430344</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-7.548034887029489</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>12.19640954908136</v>
+        <v>12.19640954908137</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-16.70052363647813</v>
+        <v>-15.17178785125865</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>9.017117710255476</v>
+        <v>8.797324309154757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.76846198393326</v>
+        <v>-12.00416260597639</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.814322113356355</v>
+        <v>1.678714447958431</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-11.99124391321588</v>
+        <v>-11.97688437405479</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.455475949978569</v>
+        <v>7.237857385317739</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.577278558516236</v>
+        <v>-1.63075526548301</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>27.07082419809551</v>
+        <v>27.27301108690086</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.560860597355385</v>
+        <v>-2.653622057655734</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.93997700688481</v>
+        <v>13.32569010801876</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-3.72713704107027</v>
+        <v>-3.798234472456448</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>17.38771022636325</v>
+        <v>16.97413573450279</v>
       </c>
     </row>
     <row r="13">
@@ -850,13 +850,13 @@
         <v>-0.616351918831043</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>1.269253365940746</v>
+        <v>1.269253365940745</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.7091448363632394</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.7822619787256876</v>
+        <v>0.7822619787256881</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.6552423590120452</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8196080527520663</v>
+        <v>-0.8230253187332468</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4400032087541917</v>
+        <v>0.4319791540554098</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.9025272102134433</v>
+        <v>-0.907097027943819</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1306967027088072</v>
+        <v>0.1308532290460862</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8065444117285371</v>
+        <v>-0.8080175513832402</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5158668206010172</v>
+        <v>0.4910346059671619</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1790650861554039</v>
+        <v>-0.08736022350265045</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.796329107249598</v>
+        <v>2.930692309739527</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3415663328671011</v>
+        <v>-0.2733942394116707</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.908207197008833</v>
+        <v>2.039957660476255</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3917073025505125</v>
+        <v>-0.3897568543191487</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.983791466231204</v>
+        <v>1.933670667930701</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>7.019961334669772</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>27.76434064909422</v>
+        <v>27.76434064909421</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>3.615673685772967</v>
@@ -944,7 +944,7 @@
         <v>5.193975339131786</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>26.48331630549207</v>
+        <v>26.48331630549206</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2376850319531372</v>
+        <v>-0.7610200281621933</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>18.51753941794242</v>
+        <v>18.87395528409388</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.637689199820386</v>
+        <v>-3.387243678440839</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17.56466035409708</v>
+        <v>18.16271769774551</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.3274045627162737</v>
+        <v>-0.9453826047839198</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>20.82876496780377</v>
+        <v>20.7701564094338</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.25183573746919</v>
+        <v>15.43232223375515</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>35.59760245567499</v>
+        <v>35.91552648257205</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.73444602031807</v>
+        <v>12.10816196056942</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32.40235215137402</v>
+        <v>32.32955527461628</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.90473965609321</v>
+        <v>10.73781426679471</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>32.17678229970827</v>
+        <v>31.51089654282026</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>0.858900873451786</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3.397001108331851</v>
+        <v>3.397001108331849</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.4045894492989994</v>
@@ -1022,7 +1022,7 @@
         <v>0.6034132442657991</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>3.076715380301662</v>
+        <v>3.076715380301661</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1383564542853872</v>
+        <v>-0.1657416800401256</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>1.248908681453685</v>
+        <v>1.281438164429035</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3265917122021843</v>
+        <v>-0.334026181233883</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>1.12044432988003</v>
+        <v>1.205697469865796</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03736367824685501</v>
+        <v>-0.1060993593320274</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.670726118301658</v>
+        <v>1.672630911909698</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.360085161332427</v>
+        <v>3.593872462711778</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>9.234859494578398</v>
+        <v>9.246839949081057</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.056016713247319</v>
+        <v>2.247484312427639</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>5.964935442598653</v>
+        <v>6.36392489133187</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.992703269215636</v>
+        <v>1.834824737012781</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.549233587415961</v>
+        <v>5.533452578585127</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5511157409360266</v>
+        <v>0.358551767305351</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>14.77460201495591</v>
+        <v>15.13269980847326</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.302833806852549</v>
+        <v>-4.875659624189259</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14.79492491109598</v>
+        <v>14.8376592840101</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.115335907938279</v>
+        <v>-0.4885095924788211</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.04252012004108</v>
+        <v>16.75057132284753</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.34859791055252</v>
+        <v>16.05889901019097</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>31.62359552790359</v>
+        <v>30.65547166897912</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.476149026345462</v>
+        <v>9.235684831989303</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>28.07972590605296</v>
+        <v>28.22155890582316</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.40253127138156</v>
+        <v>9.860924872752005</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>27.99908133158624</v>
+        <v>27.54649283006497</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>1.077568548706264</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>2.961901611153536</v>
+        <v>2.961901611153537</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.1911521601358535</v>
@@ -1182,7 +1182,7 @@
         <v>0.5711867073544274</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>2.614086612210008</v>
+        <v>2.614086612210007</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.01058118029846124</v>
+        <v>-0.06633138818591315</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.9801818231033945</v>
+        <v>1.100429253245715</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4323954680588675</v>
+        <v>-0.4192036327557985</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1.036976829923846</v>
+        <v>0.9983271898363607</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02520135631178561</v>
+        <v>-0.04849476795262171</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.422453836128129</v>
+        <v>1.350524440060017</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.883447852973577</v>
+        <v>3.680288737303064</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7.569781308451809</v>
+        <v>7.611870068176175</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.389599479095071</v>
+        <v>1.49469121905665</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5.28458188536564</v>
+        <v>4.826646071875905</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.74056429405562</v>
+        <v>1.743880531958806</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.722370159182488</v>
+        <v>4.694412463036832</v>
       </c>
     </row>
     <row r="28">
@@ -1252,7 +1252,7 @@
         <v>-4.746769519545307</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>8.309612538938264</v>
+        <v>8.309612538938262</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-3.587574559759806</v>
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-12.97051249817932</v>
+        <v>-13.35124996784649</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.779304072062345</v>
+        <v>-0.3870674835092254</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.92883839269538</v>
+        <v>-11.5991944166234</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.046398239574064</v>
+        <v>-0.5686860124283296</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.332304644589648</v>
+        <v>-9.357780733212705</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.352684671745681</v>
+        <v>1.331358439568805</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.660845476199544</v>
+        <v>1.840963971994317</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.48261404808338</v>
+        <v>16.61064468107946</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.566825343603665</v>
+        <v>2.148873885952384</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.48688889726728</v>
+        <v>12.19848090910678</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3644264131789444</v>
+        <v>0.2793856482960896</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>11.83941940145642</v>
+        <v>11.98051901274567</v>
       </c>
     </row>
     <row r="31">
@@ -1330,7 +1330,7 @@
         <v>-0.581793234997817</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1.018477164459085</v>
+        <v>1.018477164459084</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.4893144658103563</v>
@@ -1356,19 +1356,19 @@
         <v>-1</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1614964395085786</v>
+        <v>-0.143761862929586</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8957491027034572</v>
+        <v>-0.9055603658003968</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1431235356212619</v>
+        <v>-0.07043853113364143</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.8441701329289398</v>
+        <v>-0.8255348265221747</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09984205396996038</v>
+        <v>0.1038907002126229</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7073462424468538</v>
+        <v>1.528342486077307</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>5.148473801638084</v>
+        <v>4.753548739599372</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.294146889156753</v>
+        <v>1.316980897747291</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>4.374181148286025</v>
+        <v>4.378710638815558</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2110139943139422</v>
+        <v>0.2691756619073963</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.494715747687148</v>
+        <v>2.60682269346464</v>
       </c>
     </row>
     <row r="34">
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-8.050100647894158</v>
+        <v>-7.887927938501973</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>10.10879759082722</v>
+        <v>10.67475615937119</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.901618700552553</v>
+        <v>-3.957334684644459</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>12.00319657203474</v>
+        <v>11.25731435635985</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.956826823512378</v>
+        <v>-3.400125023796209</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>13.92925841101896</v>
+        <v>13.8637129192325</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.467776550080438</v>
+        <v>8.269410712797882</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>26.97251840795864</v>
+        <v>27.00494015002956</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.902542373223587</v>
+        <v>7.424695094693082</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>24.79775839006462</v>
+        <v>24.97313391431757</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.481333473839323</v>
+        <v>5.344885757724064</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>24.13305750441591</v>
+        <v>24.48921944474152</v>
       </c>
     </row>
     <row r="37">
@@ -1496,7 +1496,7 @@
         <v>0.3144897389730891</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>3.862057701604488</v>
+        <v>3.862057701604487</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09199978989380043</v>
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6175793138739708</v>
+        <v>-0.6226362886745207</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.6540561352662364</v>
+        <v>0.6514906440598101</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5763266599100481</v>
+        <v>-0.6004414041203934</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1.241183805923574</v>
+        <v>1.077456419404014</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4455721287781982</v>
+        <v>-0.4165415509837069</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1.397695812971979</v>
+        <v>1.3285510106555</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.459530769081772</v>
+        <v>1.817896127057085</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>4.950937116568433</v>
+        <v>5.155308785321832</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3.659509321279258</v>
+        <v>3.208645541444855</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>12.13906288636881</v>
+        <v>9.597020062501073</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.134050521047758</v>
+        <v>1.113517199988724</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>5.358866447955579</v>
+        <v>5.412165535960026</v>
       </c>
     </row>
     <row r="40">
@@ -1572,7 +1572,7 @@
         <v>8.192661073137234</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>29.47725992096816</v>
+        <v>29.47725992096814</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>2.458593058758041</v>
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.408607894112383</v>
+        <v>2.338700078484461</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>23.08294218201464</v>
+        <v>22.26481613633273</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.909954261803302</v>
+        <v>-2.758854686446874</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>24.58699930155003</v>
+        <v>24.39487314740144</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.30625940528156</v>
+        <v>1.241682469749178</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>25.53843448329439</v>
+        <v>25.35460886396323</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>14.28864268662632</v>
+        <v>13.61359734558519</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>35.64085805582852</v>
+        <v>35.46042935778244</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7.15304968488523</v>
+        <v>7.349402244399887</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>35.35918685041589</v>
+        <v>35.71347063200093</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>9.023258040014841</v>
+        <v>9.089807207796355</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>33.29895265525612</v>
+        <v>33.74218958233992</v>
       </c>
     </row>
     <row r="43">
@@ -1650,7 +1650,7 @@
         <v>1.08608005557361</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>3.90772470718887</v>
+        <v>3.907724707188868</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>0.3211787448557582</v>
@@ -1662,7 +1662,7 @@
         <v>0.6813704343018308</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>3.918097496846905</v>
+        <v>3.918097496846904</v>
       </c>
     </row>
     <row r="44">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1992991464099286</v>
+        <v>0.1434022825501164</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>1.922566486382552</v>
+        <v>1.87780723103368</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2922030923436421</v>
+        <v>-0.2840822642366808</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>2.162309893210876</v>
+        <v>2.255753667277153</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1016926857726694</v>
+        <v>0.1311371601932401</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>2.485718294571702</v>
+        <v>2.464876013338143</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>3.236138199982242</v>
+        <v>2.748229490396758</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>7.719347811585921</v>
+        <v>7.433022809566955</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.294388316007312</v>
+        <v>1.345607977233178</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>6.829884183630704</v>
+        <v>7.328778630554728</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.553860320391418</v>
+        <v>1.605493384800005</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>5.726905513627995</v>
+        <v>5.970374987286687</v>
       </c>
     </row>
     <row r="46">
@@ -1738,7 +1738,7 @@
         <v>-0.9670890321873336</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>32.88826778288032</v>
+        <v>32.88826778288033</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>-1.502454618098339</v>
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-7.835643901616374</v>
+        <v>-7.833852197760452</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>23.98085263013714</v>
+        <v>24.38501187327747</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.19832357714574</v>
+        <v>-3.996829766201941</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>27.86400256214072</v>
+        <v>28.39339362769212</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-4.494081930137943</v>
+        <v>-4.776756741378457</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>28.0809775357375</v>
+        <v>28.05351022626677</v>
       </c>
     </row>
     <row r="48">
@@ -1781,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.223211755434373</v>
+        <v>3.17288802948677</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>36.028780779043</v>
+        <v>36.72564603266873</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.786050535008839</v>
+        <v>1.978853542170578</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>37.24171099615453</v>
+        <v>37.372899231216</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.367954967596976</v>
+        <v>1.394088506427688</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>35.48241859982334</v>
+        <v>35.50360033343966</v>
       </c>
     </row>
     <row r="49">
@@ -1816,7 +1816,7 @@
         <v>-0.2100155059745028</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>7.142099609406587</v>
+        <v>7.142099609406589</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>-0.205130728796165</v>
@@ -1833,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5729625983032883</v>
+        <v>-0.5444813292786856</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>1.584887582938912</v>
+        <v>1.573758473147762</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.6597945761683174</v>
+        <v>-0.6385303579568138</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>4.036834473808373</v>
+        <v>4.17557149666999</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4901617395661825</v>
+        <v>-0.5057736065479134</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>3.045672455121311</v>
+        <v>2.901554282146936</v>
       </c>
     </row>
     <row r="51">
@@ -1859,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4486233408574715</v>
+        <v>0.4488912212868139</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>4.802682621012548</v>
+        <v>4.769980998441335</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6914122761795608</v>
+        <v>0.6471165730792279</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>12.87801055320359</v>
+        <v>13.76861509875983</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2457550126273115</v>
+        <v>0.2809553693078027</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>6.50989636119095</v>
+        <v>6.227706793383449</v>
       </c>
     </row>
     <row r="52">
@@ -1915,22 +1915,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.2475392556627925</v>
+        <v>-0.259492714962154</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>23.71787883414238</v>
+        <v>23.93780299660472</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-1.99500876484107</v>
+        <v>-2.039125345702559</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>20.33913168151678</v>
+        <v>20.70739725638179</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.6580136062610081</v>
+        <v>-0.4408534813603082</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>23.0476701530008</v>
+        <v>22.81534006022883</v>
       </c>
     </row>
     <row r="54">
@@ -1941,22 +1941,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>4.781362759549705</v>
+        <v>4.942831466813461</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>29.55076859090433</v>
+        <v>29.41927641415141</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.902100510604785</v>
+        <v>1.92573342921992</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>24.86983831525729</v>
+        <v>25.01797270317397</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>2.823511596694898</v>
+        <v>2.641798900398402</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>26.45524053081887</v>
+        <v>26.35646555595795</v>
       </c>
     </row>
     <row r="55">
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.02658704861682854</v>
+        <v>-0.02823248333621844</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>2.102733677127556</v>
+        <v>2.104363921479787</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2405198023389686</v>
+        <v>-0.2352678425750311</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>2.301047597480152</v>
+        <v>2.326044927537994</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.07132836340458081</v>
+        <v>-0.04638533328606377</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>2.444909969668772</v>
+        <v>2.425301553990337</v>
       </c>
     </row>
     <row r="57">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.5994881803036747</v>
+        <v>0.6069952283185476</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>3.755417902899091</v>
+        <v>3.729754242589152</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.2817009788965603</v>
+        <v>0.2861100786240702</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>3.917823695678208</v>
+        <v>3.991814494041387</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.3670416517191701</v>
+        <v>0.352703438940992</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>3.568134397633279</v>
+        <v>3.514625672604241</v>
       </c>
     </row>
     <row r="58">
